--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,12 +89,6 @@
   </si>
   <si>
     <t>Fzd4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.232908333333333</v>
+        <v>0.103667</v>
       </c>
       <c r="H2">
-        <v>9.698725</v>
+        <v>0.311001</v>
       </c>
       <c r="I2">
-        <v>0.5584514397475191</v>
+        <v>0.01587706838992035</v>
       </c>
       <c r="J2">
-        <v>0.5584514397475192</v>
+        <v>0.01587706838992035</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>19.48350866666667</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N2">
-        <v>58.450526</v>
+        <v>104.939308</v>
       </c>
       <c r="O2">
-        <v>0.3081250754721726</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P2">
-        <v>0.3081250754721727</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q2">
-        <v>62.98839753103888</v>
+        <v>3.626247747478667</v>
       </c>
       <c r="R2">
-        <v>566.89557777935</v>
+        <v>32.63622972730801</v>
       </c>
       <c r="S2">
-        <v>0.1720728920197478</v>
+        <v>0.006911233540273475</v>
       </c>
       <c r="T2">
-        <v>0.1720728920197478</v>
+        <v>0.006911233540273473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.232908333333333</v>
+        <v>0.103667</v>
       </c>
       <c r="H3">
-        <v>9.698725</v>
+        <v>0.311001</v>
       </c>
       <c r="I3">
-        <v>0.5584514397475191</v>
+        <v>0.01587706838992035</v>
       </c>
       <c r="J3">
-        <v>0.5584514397475192</v>
+        <v>0.01587706838992035</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +617,25 @@
         <v>20.343383</v>
       </c>
       <c r="N3">
-        <v>61.03014899999999</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O3">
-        <v>0.3217236961512192</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P3">
-        <v>0.3217236961512193</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q3">
-        <v>65.76829242889166</v>
+        <v>2.108937485461</v>
       </c>
       <c r="R3">
-        <v>591.9146318600249</v>
+        <v>18.980437369149</v>
       </c>
       <c r="S3">
-        <v>0.1796670613165417</v>
+        <v>0.004019405318898116</v>
       </c>
       <c r="T3">
-        <v>0.1796670613165418</v>
+        <v>0.004019405318898116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.232908333333333</v>
+        <v>0.103667</v>
       </c>
       <c r="H4">
-        <v>9.698725</v>
+        <v>0.311001</v>
       </c>
       <c r="I4">
-        <v>0.5584514397475191</v>
+        <v>0.01587706838992035</v>
       </c>
       <c r="J4">
-        <v>0.5584514397475192</v>
+        <v>0.01587706838992035</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.275017</v>
+        <v>25.035323</v>
       </c>
       <c r="N4">
-        <v>69.825051</v>
+        <v>75.105969</v>
       </c>
       <c r="O4">
-        <v>0.3680864926557428</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P4">
-        <v>0.3680864926557428</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q4">
-        <v>75.245996417775</v>
+        <v>2.595336829441</v>
       </c>
       <c r="R4">
-        <v>677.2139677599749</v>
+        <v>23.358031464969</v>
       </c>
       <c r="S4">
-        <v>0.2055584317752142</v>
+        <v>0.004946429530748762</v>
       </c>
       <c r="T4">
-        <v>0.2055584317752142</v>
+        <v>0.00494642953074876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +726,40 @@
         <v>9.698725</v>
       </c>
       <c r="I5">
-        <v>0.5584514397475191</v>
+        <v>0.4951344854840667</v>
       </c>
       <c r="J5">
-        <v>0.5584514397475192</v>
+        <v>0.4951344854840667</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1305583333333333</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N5">
-        <v>0.391675</v>
+        <v>104.939308</v>
       </c>
       <c r="O5">
-        <v>0.002064735720865253</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P5">
-        <v>0.002064735720865253</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q5">
-        <v>0.4220831238194444</v>
+        <v>113.0863877758111</v>
       </c>
       <c r="R5">
-        <v>3.798748114375</v>
+        <v>1017.7774899823</v>
       </c>
       <c r="S5">
-        <v>0.001153054636015332</v>
+        <v>0.2155303472268219</v>
       </c>
       <c r="T5">
-        <v>0.001153054636015333</v>
+        <v>0.2155303472268219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.556150666666666</v>
+        <v>3.232908333333333</v>
       </c>
       <c r="H6">
-        <v>7.668451999999999</v>
+        <v>9.698725</v>
       </c>
       <c r="I6">
-        <v>0.4415485602524808</v>
+        <v>0.4951344854840667</v>
       </c>
       <c r="J6">
-        <v>0.4415485602524809</v>
+        <v>0.4951344854840667</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>19.48350866666667</v>
+        <v>20.343383</v>
       </c>
       <c r="N6">
-        <v>58.450526</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O6">
-        <v>0.3081250754721726</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P6">
-        <v>0.3081250754721727</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q6">
-        <v>49.80278366730577</v>
+        <v>65.76829242889167</v>
       </c>
       <c r="R6">
-        <v>448.2250530057519</v>
+        <v>591.9146318600251</v>
       </c>
       <c r="S6">
-        <v>0.1360521834524248</v>
+        <v>0.1253472074093978</v>
       </c>
       <c r="T6">
-        <v>0.1360521834524249</v>
+        <v>0.1253472074093978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,14 +829,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -847,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.556150666666666</v>
+        <v>3.232908333333333</v>
       </c>
       <c r="H7">
-        <v>7.668451999999999</v>
+        <v>9.698725</v>
       </c>
       <c r="I7">
-        <v>0.4415485602524808</v>
+        <v>0.4951344854840667</v>
       </c>
       <c r="J7">
-        <v>0.4415485602524809</v>
+        <v>0.4951344854840667</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +862,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.343383</v>
+        <v>25.035323</v>
       </c>
       <c r="N7">
-        <v>61.03014899999999</v>
+        <v>75.105969</v>
       </c>
       <c r="O7">
-        <v>0.3217236961512192</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P7">
-        <v>0.3217236961512193</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q7">
-        <v>52.00075201770533</v>
+        <v>80.93690435439167</v>
       </c>
       <c r="R7">
-        <v>468.0067681593479</v>
+        <v>728.4321391895249</v>
       </c>
       <c r="S7">
-        <v>0.1420566348346775</v>
+        <v>0.154256930847847</v>
       </c>
       <c r="T7">
-        <v>0.1420566348346775</v>
+        <v>0.154256930847847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.556150666666666</v>
+        <v>3.192778666666667</v>
       </c>
       <c r="H8">
-        <v>7.668451999999999</v>
+        <v>9.578336</v>
       </c>
       <c r="I8">
-        <v>0.4415485602524808</v>
+        <v>0.4889884461260129</v>
       </c>
       <c r="J8">
-        <v>0.4415485602524809</v>
+        <v>0.4889884461260129</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,90 +924,152 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.275017</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N8">
-        <v>69.825051</v>
+        <v>104.939308</v>
       </c>
       <c r="O8">
-        <v>0.3680864926557428</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P8">
-        <v>0.3680864926557428</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q8">
-        <v>59.494450221228</v>
+        <v>111.6826612923876</v>
       </c>
       <c r="R8">
-        <v>535.450051991052</v>
+        <v>1005.143951631488</v>
       </c>
       <c r="S8">
-        <v>0.1625280608805286</v>
+        <v>0.2128549973254391</v>
       </c>
       <c r="T8">
-        <v>0.1625280608805286</v>
+        <v>0.212854997325439</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.192778666666667</v>
+      </c>
+      <c r="H9">
+        <v>9.578336</v>
+      </c>
+      <c r="I9">
+        <v>0.4889884461260129</v>
+      </c>
+      <c r="J9">
+        <v>0.4889884461260129</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>20.343383</v>
+      </c>
+      <c r="N9">
+        <v>61.03014900000001</v>
+      </c>
+      <c r="O9">
+        <v>0.2531579017099818</v>
+      </c>
+      <c r="P9">
+        <v>0.2531579017099818</v>
+      </c>
+      <c r="Q9">
+        <v>64.95191925022935</v>
+      </c>
+      <c r="R9">
+        <v>584.5672732520641</v>
+      </c>
+      <c r="S9">
+        <v>0.1237912889816859</v>
+      </c>
+      <c r="T9">
+        <v>0.1237912889816859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.556150666666666</v>
-      </c>
-      <c r="H9">
-        <v>7.668451999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.4415485602524808</v>
-      </c>
-      <c r="J9">
-        <v>0.4415485602524809</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1305583333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.391675</v>
-      </c>
-      <c r="O9">
-        <v>0.002064735720865253</v>
-      </c>
-      <c r="P9">
-        <v>0.002064735720865253</v>
-      </c>
-      <c r="Q9">
-        <v>0.3337267707888888</v>
-      </c>
-      <c r="R9">
-        <v>3.0035409371</v>
-      </c>
-      <c r="S9">
-        <v>0.0009116810848499205</v>
-      </c>
-      <c r="T9">
-        <v>0.0009116810848499208</v>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.192778666666667</v>
+      </c>
+      <c r="H10">
+        <v>9.578336</v>
+      </c>
+      <c r="I10">
+        <v>0.4889884461260129</v>
+      </c>
+      <c r="J10">
+        <v>0.4889884461260129</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>25.035323</v>
+      </c>
+      <c r="N10">
+        <v>75.105969</v>
+      </c>
+      <c r="O10">
+        <v>0.3115455201974837</v>
+      </c>
+      <c r="P10">
+        <v>0.3115455201974837</v>
+      </c>
+      <c r="Q10">
+        <v>79.93224518750934</v>
+      </c>
+      <c r="R10">
+        <v>719.3902066875841</v>
+      </c>
+      <c r="S10">
+        <v>0.1523421598188879</v>
+      </c>
+      <c r="T10">
+        <v>0.1523421598188879</v>
       </c>
     </row>
   </sheetData>
